--- a/src/main/resources/static/HTML/页面说明.xlsx
+++ b/src/main/resources/static/HTML/页面说明.xlsx
@@ -16,10 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
-  <si>
-    <t>目前很多字段对不上，具体不清楚是接口问题还是部署问题，接口也不全，如果有功能缺失的问题请资讯服务端，如果有交互问题请留言
-分享落地页没接口，参展预登记没接口，在线招展没设计，虚拟展厅是VR，参观预登记是三方    请大家注意</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+  <si>
+    <t xml:space="preserve">新增：分享后打开H5页面（需提供APP下载链接）
+修改：参展预登记页面
+</t>
   </si>
   <si>
     <t>中文名称</t>
@@ -100,19 +101,38 @@
 id(资讯id)</t>
   </si>
   <si>
+    <t>常见问题</t>
+  </si>
+  <si>
+    <t>quesstion.html</t>
+  </si>
+  <si>
     <t>参展预登记</t>
   </si>
   <si>
     <t>preregistration.html</t>
   </si>
   <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>login()----拦截登录
+successFn()----登记成功</t>
+  </si>
+  <si>
     <t>无接口</t>
   </si>
   <si>
-    <t>常见问题</t>
-  </si>
-  <si>
-    <t>quesstion.html</t>
+    <t>分享后打开H5</t>
+  </si>
+  <si>
+    <t>share.html</t>
+  </si>
+  <si>
+    <t>id(企业id)</t>
+  </si>
+  <si>
+    <t>app下载，收藏需提供app下载链接</t>
   </si>
 </sst>
 </file>
@@ -125,7 +145,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +154,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="16"/>
       <color rgb="FFFFFE5F"/>
       <name val="宋体"/>
@@ -148,22 +169,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFE5F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFFFFE5F"/>
-      <name val="方正粗黑宋简体"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,83 +250,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,49 +280,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -334,187 +340,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,56 +549,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,20 +586,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,7 +612,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,152 +651,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,23 +806,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1175,7 +1178,7 @@
   <dimension ref="A1:XFD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1188,25 +1191,25 @@
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="72" customHeight="1" spans="1:1">
+    <row r="1" s="1" customFormat="1" ht="108" customHeight="1" spans="1:1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="44" customHeight="1" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1236,10 +1239,10 @@
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1250,10 +1253,10 @@
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1264,10 +1267,10 @@
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1278,33 +1281,52 @@
       <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="56" customHeight="1" spans="1:5">
-      <c r="A9" s="8" t="s">
+    <row r="9" ht="81" customHeight="1" spans="1:2">
+      <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="8" t="s">
+    </row>
+    <row r="10" s="3" customFormat="1" ht="56" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="10" ht="81" customHeight="1" spans="1:2">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
+    <row r="11" ht="64" customHeight="1" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="11" ht="64" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1"/>

--- a/src/main/resources/static/HTML/页面说明.xlsx
+++ b/src/main/resources/static/HTML/页面说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
-  <si>
-    <t xml:space="preserve">新增：分享后打开H5页面（需提供APP下载链接）
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+  <si>
+    <t xml:space="preserve">新增：分享后打开H5页面（需提供APP下载链接），邀请好友（需提供APP下载链接）
 修改：参展预登记页面
 </t>
   </si>
@@ -120,9 +120,6 @@
 successFn()----登记成功</t>
   </si>
   <si>
-    <t>无接口</t>
-  </si>
-  <si>
     <t>分享后打开H5</t>
   </si>
   <si>
@@ -133,6 +130,18 @@
   </si>
   <si>
     <t>app下载，收藏需提供app下载链接</t>
+  </si>
+  <si>
+    <t>邀请好友</t>
+  </si>
+  <si>
+    <t>invitation.html</t>
+  </si>
+  <si>
+    <t>isShare(是否为分享页---1：是，0或不传：否  )</t>
+  </si>
+  <si>
+    <t>app下载需提供app下载链接</t>
   </si>
 </sst>
 </file>
@@ -176,21 +185,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +222,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -225,9 +250,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,16 +265,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,21 +305,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -311,9 +321,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,19 +355,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,157 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,19 +561,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,24 +638,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,36 +655,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -654,10 +663,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,133 +675,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1175,17 +1184,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD11"/>
+  <dimension ref="A1:XFD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="41.6666666666667" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.1111111111111" style="4" customWidth="1"/>
-    <col min="3" max="3" width="40.3333333333333" style="4" customWidth="1"/>
+    <col min="3" max="3" width="59.3333333333333" style="4" customWidth="1"/>
     <col min="4" max="4" width="47.2222222222222" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.1111111111111" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
@@ -1296,7 +1305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="56" customHeight="1" spans="1:5">
+    <row r="10" s="3" customFormat="1" ht="56" customHeight="1" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1308,23 +1317,34 @@
       </c>
       <c r="D10" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" ht="64" customHeight="1" spans="1:4">
       <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="4" t="s">
+    </row>
+    <row r="12" ht="59" customHeight="1" spans="1:4">
+      <c r="A12" s="4" t="s">
         <v>35</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/HTML/页面说明.xlsx
+++ b/src/main/resources/static/HTML/页面说明.xlsx
@@ -18,8 +18,8 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
-    <t xml:space="preserve">新增：分享后打开H5页面（需提供APP下载链接），邀请好友（需提供APP下载链接）
-修改：参展预登记页面
+    <t xml:space="preserve">
+修改：商机详情，我的商机详情，我的商品详情，资讯详情  ----url增加参数isShare
 </t>
   </si>
   <si>
@@ -60,7 +60,8 @@
   </si>
   <si>
     <t>token
-id(商机id)</t>
+id(商机id)
+isShare(是否为分享页---1：是，0或不传：否  )</t>
   </si>
   <si>
     <t>login()---评论，点赞，收藏拦截登录
@@ -74,7 +75,8 @@
   </si>
   <si>
     <t>token
-id(我的商机id)</t>
+id(我的商机id)
+isShare(是否为分享页---1：是，0或不传：否  )</t>
   </si>
   <si>
     <t>login()---拦截登录
@@ -88,7 +90,8 @@
   </si>
   <si>
     <t>token
-id(我的商品id)</t>
+id(我的商品id)
+isShare(是否为分享页---1：是，0或不传：否  )</t>
   </si>
   <si>
     <t>资讯详情</t>
@@ -98,7 +101,8 @@
   </si>
   <si>
     <t>token
-id(资讯id)</t>
+id(资讯id)
+isShare(是否为分享页---1：是，0或不传：否  )</t>
   </si>
   <si>
     <t>常见问题</t>
@@ -141,7 +145,8 @@
     <t>isShare(是否为分享页---1：是，0或不传：否  )</t>
   </si>
   <si>
-    <t>app下载需提供app下载链接</t>
+    <t>invitationFn()----分享拦截
+app下载需提供app下载链接</t>
   </si>
 </sst>
 </file>
@@ -149,10 +154,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -185,6 +190,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -192,7 +272,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,7 +280,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,108 +301,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,181 +360,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,15 +559,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,17 +587,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,17 +626,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,11 +646,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,145 +668,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1186,8 +1191,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1343,7 +1348,7 @@
       <c r="C12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>38</v>
       </c>
     </row>
